--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_semester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.06475160574547126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06607927261549064</v>
+        <v>0.05832799636040181</v>
       </c>
       <c r="H2" t="n">
-        <v>2.050399916317502</v>
+        <v>-9.920386237709192</v>
       </c>
       <c r="I2" t="n">
-        <v>-283.513776917725</v>
+        <v>-121.4873529270648</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06840507148266159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07321871544692471</v>
+        <v>0.06572805537043631</v>
       </c>
       <c r="H3" t="n">
-        <v>7.036969423360984</v>
+        <v>-3.913476083281062</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.04489303740573931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03039078434516539</v>
+        <v>-0.04254921411810851</v>
       </c>
       <c r="H4" t="n">
-        <v>-32.30401393762653</v>
+        <v>5.220906009204787</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.02707184252639069</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0190166340157727</v>
+        <v>-0.03527212521511149</v>
       </c>
       <c r="H5" t="n">
-        <v>-29.75493264917398</v>
+        <v>-30.29081851642291</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1060411983308413</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09740008109933362</v>
+        <v>-0.1027906970381103</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.148830235346814</v>
+        <v>3.065319275806043</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.09137116790774705</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09601605486047721</v>
+        <v>-0.0921511138629255</v>
       </c>
       <c r="H7" t="n">
-        <v>5.083536808263053</v>
+        <v>-0.8536018232424556</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3669045294234091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3584110959135591</v>
+        <v>-0.3623223968642763</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.314889250126589</v>
+        <v>1.248862358372528</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3900907247280979</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3647503473391421</v>
+        <v>-0.3738361734413548</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.496021510539286</v>
+        <v>4.166864336001049</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.02019099792724464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02103399790875785</v>
+        <v>0.03614983150458126</v>
       </c>
       <c r="H10" t="n">
-        <v>4.175127869116907</v>
+        <v>79.03935028294283</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.02269447604523495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03697068075071001</v>
+        <v>0.03150633298148364</v>
       </c>
       <c r="H11" t="n">
-        <v>62.90607757156202</v>
+        <v>38.82820171166224</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2217475509599964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2167625417079969</v>
+        <v>0.2045720368979911</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.248056057628713</v>
+        <v>-7.745525931469602</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2252068013777494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2239273138203069</v>
+        <v>0.2230290841146326</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5681389503402977</v>
+        <v>-0.9669855660637973</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0421051027109104</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04929187041495463</v>
+        <v>-0.04685661568271722</v>
       </c>
       <c r="H14" t="n">
-        <v>17.06863833912931</v>
+        <v>-11.28488631040816</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.0476962964829882</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04751272290612547</v>
+        <v>-0.05003791853063617</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.384880148772569</v>
+        <v>-4.909442074780701</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.2125733987723978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2093322348183518</v>
+        <v>0.2140586096099364</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.524726975606347</v>
+        <v>0.6986814183315547</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.220547964401221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2111931323633653</v>
+        <v>0.2111149330516633</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.24163154860836</v>
+        <v>-4.277088376294032</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.0730202405914521</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07204636802515882</v>
+        <v>0.07855223677483977</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.333702215173583</v>
+        <v>7.57597638487549</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.07533801278860332</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07368346598711548</v>
+        <v>0.08774828869033485</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.196164645503008</v>
+        <v>16.47279433365793</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.07498197610986357</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0922528433149099</v>
+        <v>-0.07324943780849476</v>
       </c>
       <c r="H20" t="n">
-        <v>23.03335828298399</v>
+        <v>2.3106063500251</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.08656883138589506</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.07890155313047045</v>
+        <v>-0.08983309954337849</v>
       </c>
       <c r="H21" t="n">
-        <v>-8.856857754318566</v>
+        <v>-3.770719906027618</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.07350189683413895</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07679566373565519</v>
+        <v>0.07559424518997056</v>
       </c>
       <c r="H22" t="n">
-        <v>4.481199864744722</v>
+        <v>2.846658992424517</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.06833131635347874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0788626414834621</v>
+        <v>0.0751301975600901</v>
       </c>
       <c r="H23" t="n">
-        <v>15.41215022919314</v>
+        <v>9.949875941860485</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.0666121311904289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06827285573193928</v>
+        <v>0.05697223742975668</v>
       </c>
       <c r="H24" t="n">
-        <v>2.493126269692149</v>
+        <v>-14.47167893955226</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.05478005394628295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0562161272162503</v>
+        <v>0.06682575910596951</v>
       </c>
       <c r="H25" t="n">
-        <v>2.621525841094564</v>
+        <v>21.98921741022475</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.119349034221139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1178251841434951</v>
+        <v>0.1123831206435106</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.276801347902315</v>
+        <v>-5.836589816656104</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1138601832942567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1205760154205789</v>
+        <v>0.1195293469803164</v>
       </c>
       <c r="H27" t="n">
-        <v>5.898314873572622</v>
+        <v>4.979057227941124</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1292533789032894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1361807427147859</v>
+        <v>0.1370710158776816</v>
       </c>
       <c r="H28" t="n">
-        <v>5.359522412702052</v>
+        <v>6.048303758651891</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1508404131181501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1422215158944414</v>
+        <v>0.1499297765495334</v>
       </c>
       <c r="H29" t="n">
-        <v>-5.71391780593819</v>
+        <v>-0.6037086148149298</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.08430730692358705</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08820894749441999</v>
+        <v>0.08476799248276795</v>
       </c>
       <c r="H30" t="n">
-        <v>4.627879496102554</v>
+        <v>0.5464360990660588</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.08168804472812186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08938785969065173</v>
+        <v>0.09043271579595241</v>
       </c>
       <c r="H31" t="n">
-        <v>9.425877419586643</v>
+        <v>10.70495823095656</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.05335989709435844</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05949385916961451</v>
+        <v>0.05485031655421222</v>
       </c>
       <c r="H32" t="n">
-        <v>11.49545334468907</v>
+        <v>2.793145303894068</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.05524291083483257</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0602379780511723</v>
+        <v>0.05767473718886911</v>
       </c>
       <c r="H33" t="n">
-        <v>9.04200582636599</v>
+        <v>4.402060494797806</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.01735724411428837</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01691487582297279</v>
+        <v>0.01434228980352922</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.548609032648372</v>
+        <v>-17.37000580799149</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01690068813636874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01782176395340264</v>
+        <v>0.02134725696142655</v>
       </c>
       <c r="H35" t="n">
-        <v>5.449930852530366</v>
+        <v>26.30998684301618</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>-0.02904570050041436</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.04068410051959592</v>
+        <v>-0.02469601278756728</v>
       </c>
       <c r="H36" t="n">
-        <v>40.06926952584784</v>
+        <v>14.97532384452229</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.03326387867410367</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01857859698568199</v>
+        <v>-0.02160077912148109</v>
       </c>
       <c r="H37" t="n">
-        <v>-44.14783324668133</v>
+        <v>35.06235597745384</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.07828272299359128</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07863472451662308</v>
+        <v>0.08295617624488258</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4496541632316751</v>
+        <v>5.969967666650916</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.07774513092769705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07634978570576059</v>
+        <v>0.0678148231732276</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.794768630892309</v>
+        <v>-12.7728999050817</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.06620903162762284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06759592864704236</v>
+        <v>0.062747854665526</v>
       </c>
       <c r="H40" t="n">
-        <v>2.094724821259728</v>
+        <v>-5.227650785716699</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.06502283945517741</v>
       </c>
       <c r="G41" t="n">
-        <v>0.07776471814708355</v>
+        <v>0.0748304059383727</v>
       </c>
       <c r="H41" t="n">
-        <v>19.59600472490836</v>
+        <v>15.08326391983544</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.07779129312774727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0860416720098109</v>
+        <v>0.08128983963579929</v>
       </c>
       <c r="H42" t="n">
-        <v>10.60578703649396</v>
+        <v>4.497349725639321</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.08016449204640863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08006624624353631</v>
+        <v>0.0768170241621656</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.122555261518335</v>
+        <v>-4.175748886807796</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.0882473020929648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08569800959720916</v>
+        <v>0.07963406963621836</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.888805023262998</v>
+        <v>-9.760335163190335</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.09038350561601033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09377145885507951</v>
+        <v>0.08989991083790649</v>
       </c>
       <c r="H45" t="n">
-        <v>3.748419820606124</v>
+        <v>-0.5350476005637165</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.002736221431388826</v>
       </c>
       <c r="G46" t="n">
-        <v>0.001266765902688506</v>
+        <v>-0.003000334788855687</v>
       </c>
       <c r="H46" t="n">
-        <v>-146.2961764774108</v>
+        <v>-9.652484789317816</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-4.777339627826626e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>0.007519028519151209</v>
+        <v>-0.003372651366724857</v>
       </c>
       <c r="H47" t="n">
-        <v>-15838.94490430413</v>
+        <v>-6959.685158409368</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.09610514426044459</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.09460573000987958</v>
+        <v>-0.08985406654980709</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.560181051808836</v>
+        <v>6.50441530340676</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1095762031015</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09678561349765949</v>
+        <v>-0.1045733632872352</v>
       </c>
       <c r="H49" t="n">
-        <v>-11.67278044119912</v>
+        <v>4.565626178551462</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.170499290945181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1697298443470549</v>
+        <v>0.1758178917829803</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.4512902041179023</v>
+        <v>3.119426953810235</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1698348686233734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1757095939406723</v>
+        <v>0.1768501245636154</v>
       </c>
       <c r="H51" t="n">
-        <v>3.459080791192942</v>
+        <v>4.130633477745408</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.07096188459140108</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06383630057250109</v>
+        <v>0.06213239677001493</v>
       </c>
       <c r="H52" t="n">
-        <v>-10.04142443500359</v>
+        <v>-12.44257797298703</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06431610809503106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06769255629891481</v>
+        <v>0.06798800538368978</v>
       </c>
       <c r="H53" t="n">
-        <v>5.249770708909865</v>
+        <v>5.709140987251993</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.127802855650489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1275413548092164</v>
+        <v>-0.1333500681251131</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.2046126746868012</v>
+        <v>-4.340444856564431</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1164711675885664</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1224501792326258</v>
+        <v>-0.1375015681986004</v>
       </c>
       <c r="H55" t="n">
-        <v>5.133469310774159</v>
+        <v>-18.05631474763243</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1900208351250397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1971872414011397</v>
+        <v>0.1870830823541221</v>
       </c>
       <c r="H56" t="n">
-        <v>3.771379212908031</v>
+        <v>-1.546016135011964</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1989082743606582</v>
       </c>
       <c r="G57" t="n">
-        <v>0.19776921352913</v>
+        <v>0.2034892563218849</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.5726563337746687</v>
+        <v>2.303062542747975</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_semester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06475160574547126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05832799636040181</v>
+        <v>0.06191573587245055</v>
       </c>
       <c r="H2" t="n">
-        <v>-9.920386237709192</v>
+        <v>-4.379613200895871</v>
       </c>
       <c r="I2" t="n">
-        <v>-121.4873529270648</v>
+        <v>459.6863173629243</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06840507148266159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06572805537043631</v>
+        <v>0.06680946745287783</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.913476083281062</v>
+        <v>-2.33258148145959</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.04489303740573931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04254921411810851</v>
+        <v>-0.03908288381688925</v>
       </c>
       <c r="H4" t="n">
-        <v>5.220906009204787</v>
+        <v>12.94221537370796</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.02707184252639069</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03527212521511149</v>
+        <v>-0.02424925138234309</v>
       </c>
       <c r="H5" t="n">
-        <v>-30.29081851642291</v>
+        <v>10.42629862114493</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1060411983308413</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1027906970381103</v>
+        <v>-0.1025884088958581</v>
       </c>
       <c r="H6" t="n">
-        <v>3.065319275806043</v>
+        <v>3.256083002957712</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.09137116790774705</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0921511138629255</v>
+        <v>-0.08735638126406267</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.8536018232424556</v>
+        <v>4.393931625934679</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3669045294234091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3623223968642763</v>
+        <v>-0.3653970310607456</v>
       </c>
       <c r="H8" t="n">
-        <v>1.248862358372528</v>
+        <v>0.4108693792994438</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3900907247280979</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3738361734413548</v>
+        <v>-0.3754842595773724</v>
       </c>
       <c r="H9" t="n">
-        <v>4.166864336001049</v>
+        <v>3.744376429587384</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.02019099792724464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03614983150458126</v>
+        <v>0.02610195967060595</v>
       </c>
       <c r="H10" t="n">
-        <v>79.03935028294283</v>
+        <v>29.27523327306857</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.02269447604523495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03150633298148364</v>
+        <v>0.02448145428807504</v>
       </c>
       <c r="H11" t="n">
-        <v>38.82820171166224</v>
+        <v>7.874066972413285</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2217475509599964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2045720368979911</v>
+        <v>0.2247337770452149</v>
       </c>
       <c r="H12" t="n">
-        <v>-7.745525931469602</v>
+        <v>1.34667827098448</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2252068013777494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2230290841146326</v>
+        <v>0.2153840120456268</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.9669855660637973</v>
+        <v>-4.361675256710567</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0421051027109104</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04685661568271722</v>
+        <v>-0.04615002856872588</v>
       </c>
       <c r="H14" t="n">
-        <v>-11.28488631040816</v>
+        <v>-9.60673551989068</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.0476962964829882</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.05003791853063617</v>
+        <v>-0.05210792298475388</v>
       </c>
       <c r="H15" t="n">
-        <v>-4.909442074780701</v>
+        <v>-9.249411017350521</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.2125733987723978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2140586096099364</v>
+        <v>0.2212101149799407</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6986814183315547</v>
+        <v>4.06293367722375</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.220547964401221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2111149330516633</v>
+        <v>0.2263566474584515</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.277088376294032</v>
+        <v>2.633750473735192</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.0730202405914521</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07855223677483977</v>
+        <v>0.08061226410872555</v>
       </c>
       <c r="H18" t="n">
-        <v>7.57597638487549</v>
+        <v>10.39714941470925</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.07533801278860332</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08774828869033485</v>
+        <v>0.07571973855551552</v>
       </c>
       <c r="H19" t="n">
-        <v>16.47279433365793</v>
+        <v>0.5066841462666574</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.07498197610986357</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.07324943780849476</v>
+        <v>-0.08136331454456529</v>
       </c>
       <c r="H20" t="n">
-        <v>2.3106063500251</v>
+        <v>-8.510496476315566</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.08656883138589506</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.08983309954337849</v>
+        <v>-0.07781129014068847</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.770719906027618</v>
+        <v>10.11627522863095</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.07350189683413895</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07559424518997056</v>
+        <v>0.06630947889539876</v>
       </c>
       <c r="H22" t="n">
-        <v>2.846658992424517</v>
+        <v>-9.785350104596994</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.06833131635347874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0751301975600901</v>
+        <v>0.07163371307421811</v>
       </c>
       <c r="H23" t="n">
-        <v>9.949875941860485</v>
+        <v>4.832918341066388</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.0666121311904289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05697223742975668</v>
+        <v>0.06506498021889888</v>
       </c>
       <c r="H24" t="n">
-        <v>-14.47167893955226</v>
+        <v>-2.322626440380759</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.05478005394628295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06682575910596951</v>
+        <v>0.05937974298847255</v>
       </c>
       <c r="H25" t="n">
-        <v>21.98921741022475</v>
+        <v>8.396649347406695</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.119349034221139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1123831206435106</v>
+        <v>0.1174438028484849</v>
       </c>
       <c r="H26" t="n">
-        <v>-5.836589816656104</v>
+        <v>-1.596352567984715</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1138601832942567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1195293469803164</v>
+        <v>0.1196586471448159</v>
       </c>
       <c r="H27" t="n">
-        <v>4.979057227941124</v>
+        <v>5.092617702514871</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1292533789032894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1370710158776816</v>
+        <v>0.1309651687587763</v>
       </c>
       <c r="H28" t="n">
-        <v>6.048303758651891</v>
+        <v>1.324367587146582</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1508404131181501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1499297765495334</v>
+        <v>0.1446308546695255</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.6037086148149298</v>
+        <v>-4.116641104503471</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.08430730692358705</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08476799248276795</v>
+        <v>0.09058289824644754</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5464360990660588</v>
+        <v>7.443709865561764</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.08168804472812186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09043271579595241</v>
+        <v>0.08964818302980701</v>
       </c>
       <c r="H31" t="n">
-        <v>10.70495823095656</v>
+        <v>9.744557270502037</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.05335989709435844</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05485031655421222</v>
+        <v>0.06384434676086118</v>
       </c>
       <c r="H32" t="n">
-        <v>2.793145303894068</v>
+        <v>19.64855675782632</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.05524291083483257</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05767473718886911</v>
+        <v>0.063815768477714</v>
       </c>
       <c r="H33" t="n">
-        <v>4.402060494797806</v>
+        <v>15.51847560769001</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.01735724411428837</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01434228980352922</v>
+        <v>0.02009991780780899</v>
       </c>
       <c r="H34" t="n">
-        <v>-17.37000580799149</v>
+        <v>15.80132004517278</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01690068813636874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02134725696142655</v>
+        <v>0.02415252286088796</v>
       </c>
       <c r="H35" t="n">
-        <v>26.30998684301618</v>
+        <v>42.90851748760415</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>-0.02904570050041436</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02469601278756728</v>
+        <v>-0.01986601364123035</v>
       </c>
       <c r="H36" t="n">
-        <v>14.97532384452229</v>
+        <v>31.60428807373076</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.03326387867410367</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.02160077912148109</v>
+        <v>-0.0195917605294944</v>
       </c>
       <c r="H37" t="n">
-        <v>35.06235597745384</v>
+        <v>41.1019961879947</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.07828272299359128</v>
       </c>
       <c r="G38" t="n">
-        <v>0.08295617624488258</v>
+        <v>0.07444800409273465</v>
       </c>
       <c r="H38" t="n">
-        <v>5.969967666650916</v>
+        <v>-4.898550732797786</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.07774513092769705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0678148231732276</v>
+        <v>0.07524739617794246</v>
       </c>
       <c r="H39" t="n">
-        <v>-12.7728999050817</v>
+        <v>-3.212721774277396</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.06620903162762284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.062747854665526</v>
+        <v>0.06003681220024818</v>
       </c>
       <c r="H40" t="n">
-        <v>-5.227650785716699</v>
+        <v>-9.322322462120972</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.06502283945517741</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0748304059383727</v>
+        <v>0.06074698932327535</v>
       </c>
       <c r="H41" t="n">
-        <v>15.08326391983544</v>
+        <v>-6.575920350032629</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.07779129312774727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08128983963579929</v>
+        <v>0.08924260629315311</v>
       </c>
       <c r="H42" t="n">
-        <v>4.497349725639321</v>
+        <v>14.7205589533018</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.08016449204640863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0768170241621656</v>
+        <v>0.09240221731531657</v>
       </c>
       <c r="H43" t="n">
-        <v>-4.175748886807796</v>
+        <v>15.26576786867596</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.0882473020929648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07963406963621836</v>
+        <v>0.08554526179043372</v>
       </c>
       <c r="H44" t="n">
-        <v>-9.760335163190335</v>
+        <v>-3.061895648305034</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.09038350561601033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08989991083790649</v>
+        <v>0.08786365760164518</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.5350476005637165</v>
+        <v>-2.787951183339356</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.002736221431388826</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.003000334788855687</v>
+        <v>-0.003501737187738383</v>
       </c>
       <c r="H46" t="n">
-        <v>-9.652484789317816</v>
+        <v>-27.97711280117426</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-4.777339627826626e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.003372651366724857</v>
+        <v>0.0121446370673871</v>
       </c>
       <c r="H47" t="n">
-        <v>-6959.685158409368</v>
+        <v>25521.33909979539</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.09610514426044459</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.08985406654980709</v>
+        <v>-0.09606006067442592</v>
       </c>
       <c r="H48" t="n">
-        <v>6.50441530340676</v>
+        <v>0.04691068970927208</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1095762031015</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1045733632872352</v>
+        <v>-0.09929202972256911</v>
       </c>
       <c r="H49" t="n">
-        <v>4.565626178551462</v>
+        <v>9.385407677800906</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.170499290945181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1758178917829803</v>
+        <v>0.1656810221171058</v>
       </c>
       <c r="H50" t="n">
-        <v>3.119426953810235</v>
+        <v>-2.825975874365572</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1698348686233734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1768501245636154</v>
+        <v>0.1755880022628731</v>
       </c>
       <c r="H51" t="n">
-        <v>4.130633477745408</v>
+        <v>3.387486731159944</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.07096188459140108</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06213239677001493</v>
+        <v>0.06205750454069868</v>
       </c>
       <c r="H52" t="n">
-        <v>-12.44257797298703</v>
+        <v>-12.54811664314424</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06431610809503106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06798800538368978</v>
+        <v>0.0725440818558547</v>
       </c>
       <c r="H53" t="n">
-        <v>5.709140987251993</v>
+        <v>12.79302184868881</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.127802855650489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1333500681251131</v>
+        <v>-0.1281564478033565</v>
       </c>
       <c r="H54" t="n">
-        <v>-4.340444856564431</v>
+        <v>-0.2766699938493567</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1164711675885664</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1375015681986004</v>
+        <v>-0.1293170370406249</v>
       </c>
       <c r="H55" t="n">
-        <v>-18.05631474763243</v>
+        <v>-11.02922699069733</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1900208351250397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1870830823541221</v>
+        <v>0.1956237438727999</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.546016135011964</v>
+        <v>2.948576004348846</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.1989082743606582</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2034892563218849</v>
+        <v>0.195965168288365</v>
       </c>
       <c r="H57" t="n">
-        <v>2.303062542747975</v>
+        <v>-1.479629785011756</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>